--- a/src/main/resources/example.xlsx
+++ b/src/main/resources/example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,464 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">LiquiBase XLSX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">解析器使用指南</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">创建表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">列类型颜色参考</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">第一行写作者名，第二行是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ChangeLog ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">普通主键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">红色为普通主键，默认非空。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">第三行是表名，后面的行是列名以及说明。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">自增主键</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">品红色为自增主键，默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">类型。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">使用颜色标记列的属性，详情右侧。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">唯一约束</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓝色为唯一约束键，默认非空。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">列的上一行标记类型，默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">非空约束</t>
+  </si>
+  <si>
+    <t xml:space="preserve">绿色为非空约束键。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">在最后一列可以使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF999999"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">灰色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">来对表说明</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">说明列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普通列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不填充颜色的列为普通列。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">插入数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公式使用指南</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表下面紧跟要插入的数据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">可以用于自增外键或普通外键的引用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">数据类型支持，文本，数字，布尔，日期时间。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">并非是真正表结构上的外键，只是引用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">时间日期类型可以使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">支持的任意格式。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">由于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">POI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">日期类型判断的原因日期时间类型不可引用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">布尔类型需要注意将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">单元格的类型也设置为布尔。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">自增外键的引用必须先声明后引用（被引用表前置）。</t>
+    </r>
+  </si>
   <si>
     <t xml:space="preserve">INT</t>
   </si>
@@ -29,6 +486,9 @@
     <t xml:space="preserve">VARCHAR(255)</t>
   </si>
   <si>
+    <t xml:space="preserve">DATETIME</t>
+  </si>
+  <si>
     <t xml:space="preserve">xausky</t>
   </si>
   <si>
@@ -44,32 +504,40 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">crate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Group Table Remark</t>
   </si>
   <si>
+    <t xml:space="preserve">DEFAULT_GROUP_ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">default</t>
   </si>
   <si>
+    <t xml:space="preserve">TINYINT</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017-03-11-user</t>
   </si>
   <si>
     <t xml:space="preserve">user</t>
   </si>
   <si>
-    <t xml:space="preserve">scope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Table Remark</t>
+    <t xml:space="preserve">enable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD\ HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -99,6 +567,70 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF33FF"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6666FF"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00CC00"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF6666FF"/>
       <name val="Arial"/>
@@ -107,14 +639,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF00CC00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF999999"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00CC00"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -162,7 +694,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,6 +703,54 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,15 +763,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,7 +823,7 @@
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFF33FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
@@ -272,21 +864,262 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H16:L16"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -302,26 +1135,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.8061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.8928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.4540816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="24.6428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="23.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="17.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="9.96938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="18.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="8.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="22.734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="17.1785714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="22.734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="20.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="14.3877551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
+      <c r="A1" s="15"/>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
@@ -333,45 +1166,53 @@
       <c r="A2" s="0"/>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0"/>
+      <c r="D2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="0"/>
+      <c r="A3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="0"/>
+      <c r="D4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="21" t="n">
+        <v>42805.4659722222</v>
+      </c>
       <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,36 +1264,52 @@
       <c r="A10" s="0"/>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="0"/>
-      <c r="F10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>12</v>
+      <c r="E12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="14" t="str">
+        <f aca="false">D4</f>
+        <v>DEFAULT_GROUP_ID</v>
+      </c>
+      <c r="G12" s="22" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
